--- a/www.eia.gov/forecasts/steo/xls/Fig29.xlsx
+++ b/www.eia.gov/forecasts/steo/xls/Fig29.xlsx
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>Short-Term Energy Outlook, January 2017</t>
+    <t>Short-Term Energy Outlook, February 2017</t>
   </si>
   <si>
     <t>Cooling Degree-Days</t>
@@ -59,7 +59,7 @@
     <t>Total Summer</t>
   </si>
   <si>
-    <t>Source: Short-Term Energy Outlook, January 2017.</t>
+    <t>Source: Short-Term Energy Outlook, February 2017.</t>
   </si>
   <si>
     <t>Note: EIA calculations based on from the National Oceanic and Atmospheric Administration data. Horizontal lines indicate each month's prior 10-year average (2007-2016). Projections reflect NOAA's 14-16 month outlook.</t>
@@ -332,22 +332,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>53.353905216000001</c:v>
+                  <c:v>53.356033363999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125.98555895</c:v>
+                  <c:v>125.9657717</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>255.11523464000001</c:v>
+                  <c:v>255.16354622</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>336.06709876999997</c:v>
+                  <c:v>336.01668622</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>315.33821503000001</c:v>
+                  <c:v>315.52240819000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>223.64565174000001</c:v>
+                  <c:v>223.37339832999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -401,22 +401,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>42.689718317000001</c:v>
+                  <c:v>42.665723094999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.755460634000002</c:v>
+                  <c:v>97.464444354999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270.73584116000001</c:v>
+                  <c:v>270.31827881999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>383.63109078000002</c:v>
+                  <c:v>383.58931858</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>361.42916124999999</c:v>
+                  <c:v>361.71782325999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>220.21794319</c:v>
+                  <c:v>220.16345195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -475,22 +475,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>43.096103077999999</c:v>
+                  <c:v>42.886724031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125.89734928999999</c:v>
+                  <c:v>126.32850126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>246.70715146000001</c:v>
+                  <c:v>247.66019671999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>356.21006670999998</c:v>
+                  <c:v>357.12762593999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>331.59154087000002</c:v>
+                  <c:v>331.88751832999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>182.86370049000001</c:v>
+                  <c:v>182.98378316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -549,22 +549,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>43.331259234000001</c:v>
+                  <c:v>39.891996532999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126.31108385</c:v>
+                  <c:v>126.74356014999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>247.16951606000001</c:v>
+                  <c:v>248.12415813999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>356.64708088999998</c:v>
+                  <c:v>357.56511886999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>332.06662853</c:v>
+                  <c:v>332.36211229000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>183.37486111000001</c:v>
+                  <c:v>183.49430365000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -579,8 +579,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="446444896"/>
-        <c:axId val="446445456"/>
+        <c:axId val="592544400"/>
+        <c:axId val="626752048"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -656,8 +656,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446444896"/>
-        <c:axId val="446445456"/>
+        <c:axId val="592544400"/>
+        <c:axId val="626752048"/>
       </c:lineChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -730,22 +730,22 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>39.472999999999999</c:v>
+                  <c:v>39.470820000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115.65600000000001</c:v>
+                  <c:v>115.6249</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250.46039999999999</c:v>
+                  <c:v>250.42339999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>346.51249999999999</c:v>
+                  <c:v>346.50330000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>323.38069999999999</c:v>
+                  <c:v>323.428</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>187.51179999999999</c:v>
+                  <c:v>187.47909999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -760,11 +760,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446446576"/>
-        <c:axId val="446446016"/>
+        <c:axId val="653240432"/>
+        <c:axId val="626748128"/>
       </c:scatterChart>
       <c:catAx>
-        <c:axId val="446444896"/>
+        <c:axId val="592544400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -774,7 +774,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="446445456"/>
+        <c:crossAx val="626752048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -782,7 +782,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446445456"/>
+        <c:axId val="626752048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -810,13 +810,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446444896"/>
+        <c:crossAx val="592544400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446446016"/>
+        <c:axId val="626748128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -833,13 +833,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="446446576"/>
+        <c:crossAx val="653240432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446446576"/>
+        <c:axId val="653240432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -848,7 +848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="446446016"/>
+        <c:crossAx val="626748128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -981,7 +981,7 @@
               <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:pPr algn="l"/>
-            <a:t>Source: Short-Term Energy Outlook, January 2017.</a:t>
+            <a:t>Source: Short-Term Energy Outlook, February 2017.</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="900">
             <a:latin typeface="Arial" pitchFamily="34" charset="0"/>
@@ -1169,19 +1169,19 @@
             <v>April</v>
           </cell>
           <cell r="B27">
-            <v>53.353905216000001</v>
+            <v>53.356033363999998</v>
           </cell>
           <cell r="C27">
-            <v>42.689718317000001</v>
+            <v>42.665723094999997</v>
           </cell>
           <cell r="D27">
-            <v>43.096103077999999</v>
+            <v>42.886724031</v>
           </cell>
           <cell r="E27">
-            <v>43.331259234000001</v>
+            <v>39.891996532999997</v>
           </cell>
           <cell r="F27">
-            <v>39.472999999999999</v>
+            <v>39.470820000000003</v>
           </cell>
         </row>
         <row r="28">
@@ -1189,19 +1189,19 @@
             <v>May</v>
           </cell>
           <cell r="B28">
-            <v>125.98555895</v>
+            <v>125.9657717</v>
           </cell>
           <cell r="C28">
-            <v>97.755460634000002</v>
+            <v>97.464444354999998</v>
           </cell>
           <cell r="D28">
-            <v>125.89734928999999</v>
+            <v>126.32850126</v>
           </cell>
           <cell r="E28">
-            <v>126.31108385</v>
+            <v>126.74356014999999</v>
           </cell>
           <cell r="F28">
-            <v>115.65600000000001</v>
+            <v>115.6249</v>
           </cell>
         </row>
         <row r="29">
@@ -1209,19 +1209,19 @@
             <v>June</v>
           </cell>
           <cell r="B29">
-            <v>255.11523464000001</v>
+            <v>255.16354622</v>
           </cell>
           <cell r="C29">
-            <v>270.73584116000001</v>
+            <v>270.31827881999999</v>
           </cell>
           <cell r="D29">
-            <v>246.70715146000001</v>
+            <v>247.66019671999999</v>
           </cell>
           <cell r="E29">
-            <v>247.16951606000001</v>
+            <v>248.12415813999999</v>
           </cell>
           <cell r="F29">
-            <v>250.46039999999999</v>
+            <v>250.42339999999999</v>
           </cell>
         </row>
         <row r="30">
@@ -1229,19 +1229,19 @@
             <v>July</v>
           </cell>
           <cell r="B30">
-            <v>336.06709876999997</v>
+            <v>336.01668622</v>
           </cell>
           <cell r="C30">
-            <v>383.63109078000002</v>
+            <v>383.58931858</v>
           </cell>
           <cell r="D30">
-            <v>356.21006670999998</v>
+            <v>357.12762593999997</v>
           </cell>
           <cell r="E30">
-            <v>356.64708088999998</v>
+            <v>357.56511886999999</v>
           </cell>
           <cell r="F30">
-            <v>346.51249999999999</v>
+            <v>346.50330000000002</v>
           </cell>
         </row>
         <row r="31">
@@ -1249,19 +1249,19 @@
             <v>August</v>
           </cell>
           <cell r="B31">
-            <v>315.33821503000001</v>
+            <v>315.52240819000002</v>
           </cell>
           <cell r="C31">
-            <v>361.42916124999999</v>
+            <v>361.71782325999999</v>
           </cell>
           <cell r="D31">
-            <v>331.59154087000002</v>
+            <v>331.88751832999998</v>
           </cell>
           <cell r="E31">
-            <v>332.06662853</v>
+            <v>332.36211229000003</v>
           </cell>
           <cell r="F31">
-            <v>323.38069999999999</v>
+            <v>323.428</v>
           </cell>
         </row>
         <row r="32">
@@ -1269,19 +1269,19 @@
             <v>September</v>
           </cell>
           <cell r="B32">
-            <v>223.64565174000001</v>
+            <v>223.37339832999999</v>
           </cell>
           <cell r="C32">
-            <v>220.21794319</v>
+            <v>220.16345195</v>
           </cell>
           <cell r="D32">
-            <v>182.86370049000001</v>
+            <v>182.98378316</v>
           </cell>
           <cell r="E32">
-            <v>183.37486111000001</v>
+            <v>183.49430365000001</v>
           </cell>
           <cell r="F32">
-            <v>187.51179999999999</v>
+            <v>187.47909999999999</v>
           </cell>
         </row>
       </sheetData>
@@ -1605,19 +1605,19 @@
         <v>3</v>
       </c>
       <c r="B27" s="9">
-        <v>53.353905216000001</v>
+        <v>53.356033363999998</v>
       </c>
       <c r="C27" s="9">
-        <v>42.689718317000001</v>
+        <v>42.665723094999997</v>
       </c>
       <c r="D27" s="9">
-        <v>43.096103077999999</v>
+        <v>42.886724031</v>
       </c>
       <c r="E27" s="9">
-        <v>43.331259234000001</v>
+        <v>39.891996532999997</v>
       </c>
       <c r="F27" s="10">
-        <v>39.472999999999999</v>
+        <v>39.470820000000003</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="13" x14ac:dyDescent="0.3">
@@ -1625,19 +1625,19 @@
         <v>4</v>
       </c>
       <c r="B28" s="9">
-        <v>125.98555895</v>
+        <v>125.9657717</v>
       </c>
       <c r="C28" s="9">
-        <v>97.755460634000002</v>
+        <v>97.464444354999998</v>
       </c>
       <c r="D28" s="9">
-        <v>125.89734928999999</v>
+        <v>126.32850126</v>
       </c>
       <c r="E28" s="9">
-        <v>126.31108385</v>
+        <v>126.74356014999999</v>
       </c>
       <c r="F28" s="10">
-        <v>115.65600000000001</v>
+        <v>115.6249</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="13" x14ac:dyDescent="0.3">
@@ -1645,19 +1645,19 @@
         <v>5</v>
       </c>
       <c r="B29" s="9">
-        <v>255.11523464000001</v>
+        <v>255.16354622</v>
       </c>
       <c r="C29" s="9">
-        <v>270.73584116000001</v>
+        <v>270.31827881999999</v>
       </c>
       <c r="D29" s="9">
-        <v>246.70715146000001</v>
+        <v>247.66019671999999</v>
       </c>
       <c r="E29" s="9">
-        <v>247.16951606000001</v>
+        <v>248.12415813999999</v>
       </c>
       <c r="F29" s="10">
-        <v>250.46039999999999</v>
+        <v>250.42339999999999</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="13" x14ac:dyDescent="0.3">
@@ -1665,19 +1665,19 @@
         <v>6</v>
       </c>
       <c r="B30" s="9">
-        <v>336.06709876999997</v>
+        <v>336.01668622</v>
       </c>
       <c r="C30" s="9">
-        <v>383.63109078000002</v>
+        <v>383.58931858</v>
       </c>
       <c r="D30" s="9">
-        <v>356.21006670999998</v>
+        <v>357.12762593999997</v>
       </c>
       <c r="E30" s="9">
-        <v>356.64708088999998</v>
+        <v>357.56511886999999</v>
       </c>
       <c r="F30" s="10">
-        <v>346.51249999999999</v>
+        <v>346.50330000000002</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="13" x14ac:dyDescent="0.3">
@@ -1685,19 +1685,19 @@
         <v>7</v>
       </c>
       <c r="B31" s="9">
-        <v>315.33821503000001</v>
+        <v>315.52240819000002</v>
       </c>
       <c r="C31" s="9">
-        <v>361.42916124999999</v>
+        <v>361.71782325999999</v>
       </c>
       <c r="D31" s="9">
-        <v>331.59154087000002</v>
+        <v>331.88751832999998</v>
       </c>
       <c r="E31" s="9">
-        <v>332.06662853</v>
+        <v>332.36211229000003</v>
       </c>
       <c r="F31" s="10">
-        <v>323.38069999999999</v>
+        <v>323.428</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="13" x14ac:dyDescent="0.3">
@@ -1705,19 +1705,19 @@
         <v>8</v>
       </c>
       <c r="B32" s="9">
-        <v>223.64565174000001</v>
+        <v>223.37339832999999</v>
       </c>
       <c r="C32" s="9">
-        <v>220.21794319</v>
+        <v>220.16345195</v>
       </c>
       <c r="D32" s="9">
-        <v>182.86370049000001</v>
+        <v>182.98378316</v>
       </c>
       <c r="E32" s="9">
-        <v>183.37486111000001</v>
+        <v>183.49430365000001</v>
       </c>
       <c r="F32" s="10">
-        <v>187.51179999999999</v>
+        <v>187.47909999999999</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="13" x14ac:dyDescent="0.3">
@@ -1726,23 +1726,23 @@
       </c>
       <c r="B33" s="11">
         <f>+SUM(B27:B32)</f>
-        <v>1309.505664346</v>
+        <v>1309.3978440239998</v>
       </c>
       <c r="C33" s="11">
         <f>+SUM(C27:C32)</f>
-        <v>1376.459215331</v>
+        <v>1375.91904006</v>
       </c>
       <c r="D33" s="11">
         <f>+SUM(D27:D32)</f>
-        <v>1286.3659118979999</v>
+        <v>1288.8743494409998</v>
       </c>
       <c r="E33" s="11">
         <f>+SUM(E27:E32)</f>
-        <v>1288.900429674</v>
+        <v>1288.1812496329999</v>
       </c>
       <c r="F33" s="12">
         <f>+SUM(F27:F32)</f>
-        <v>1262.9944</v>
+        <v>1262.9295200000001</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
